--- a/test.xlsx
+++ b/test.xlsx
@@ -48,8 +48,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -415,70 +418,84 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>№ станции</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Точка визирования</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>остчёты по рейкам</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Превышения</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Горизонт прибора</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Высота</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>задний</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>передний</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>промежуточный</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>hcp</t>
         </is>

--- a/test.xlsx
+++ b/test.xlsx
@@ -418,15 +418,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="9"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
@@ -471,6 +471,13 @@
           <t>Высота</t>
         </is>
       </c>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -500,6 +507,478 @@
           <t>hcp</t>
         </is>
       </c>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>111123</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>3123</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
+      <c r="P12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="n"/>
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
+      <c r="O19" s="1" t="n"/>
+      <c r="P19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -513,14 +992,370 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№ станции</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Точка визирования</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>остчёты по рейкам</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Превышения</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Горизонт прибора</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Высота</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>задний</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>промежуточный</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>hcp</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="lst" sheetId="1" state="visible" r:id="rId1"/>
@@ -418,23 +418,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,19 +440,19 @@
           <t>Точка визирования</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>остчёты по рейкам</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Превышения</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Горизонт прибора</t>
@@ -480,8 +472,8 @@
       <c r="P1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>задний</t>
@@ -519,29 +511,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B3" s="1" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>111123</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>46111</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1</v>
+        <v>45.11</v>
       </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
@@ -552,32 +540,28 @@
       <c r="P3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>pk0</t>
+        </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1</v>
+        <v>5685</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>691</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="H4" s="1" t="n"/>
       <c r="I4" s="1" t="n">
-        <v>1</v>
+        <v>45.8</v>
       </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="n"/>
@@ -590,10 +574,16 @@
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>4684</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>4997</v>
+      </c>
       <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
+      <c r="F5" s="1" t="n">
+        <v>688</v>
+      </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
@@ -609,7 +599,9 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
+      <c r="D6" s="1" t="n">
+        <v>4687</v>
+      </c>
       <c r="E6" s="1" t="n"/>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="n"/>
@@ -624,17 +616,27 @@
       <c r="P6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="n"/>
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>pk0</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2638</v>
+      </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
       <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
+      <c r="H7" s="1" t="n">
+        <v>48438</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45.8</v>
+      </c>
       <c r="J7" s="1" t="n"/>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
@@ -644,36 +646,30 @@
       <c r="P7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>12</v>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>x3</t>
+        </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>3</v>
+        <v>7321</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>3</v>
-      </c>
+        <v>1520</v>
+      </c>
+      <c r="E8" s="1" t="n"/>
       <c r="F8" s="1" t="n">
-        <v>123</v>
+        <v>1118</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>3123</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>46.917</v>
+      </c>
+      <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
       <c r="M8" s="1" t="n"/>
@@ -685,11 +681,15 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="n"/>
+        <v>4683</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6205</v>
+      </c>
       <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
+      <c r="F9" s="1" t="n">
+        <v>1116</v>
+      </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
@@ -705,7 +705,9 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
+      <c r="D10" s="1" t="n">
+        <v>4685</v>
+      </c>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
@@ -721,14 +723,20 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>75</v>
+      </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
+      <c r="E11" s="1" t="n">
+        <v>1500</v>
+      </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
+      <c r="I11" s="1" t="n">
+        <v>46.938</v>
+      </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
@@ -739,14 +747,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>pk1</t>
+        </is>
+      </c>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="1" t="n">
+        <v>1412</v>
+      </c>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
+      <c r="I12" s="1" t="n">
+        <v>47.026</v>
+      </c>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
@@ -774,15 +790,27 @@
       <c r="P13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2277</v>
+      </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
-      <c r="H14" s="1" t="n"/>
-      <c r="I14" s="1" t="n"/>
+      <c r="H14" s="1" t="n">
+        <v>49194</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>46.917</v>
+      </c>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
@@ -793,14 +821,28 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>7078</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1436</v>
+      </c>
       <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1" t="n"/>
+      <c r="F15" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>842</v>
+      </c>
       <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
+      <c r="I15" s="1" t="n">
+        <v>47.758</v>
+      </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
@@ -812,10 +854,16 @@
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
+      <c r="C16" s="1" t="n">
+        <v>4801</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>6236</v>
+      </c>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="F16" s="1" t="n">
+        <v>842</v>
+      </c>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -831,7 +879,9 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
+      <c r="D17" s="1" t="n">
+        <v>4800</v>
+      </c>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
@@ -980,6 +1030,22 @@
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
     </row>
+    <row r="29">
+      <c r="B29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="1" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
@@ -994,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1070,21 +1136,39 @@
       <c r="I2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1001</v>
+      </c>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
+      <c r="I3" s="1" t="n">
+        <v>45.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>pk0</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>5685</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>310</v>
+      </c>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="1" t="n"/>
@@ -1095,7 +1179,9 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
+      <c r="D5" s="1" t="n">
+        <v>4997</v>
+      </c>
       <c r="E5" s="1" t="n"/>
       <c r="F5" s="1" t="n"/>
       <c r="G5" s="1" t="n"/>
@@ -1114,9 +1200,17 @@
       <c r="I6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>pk0</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2638</v>
+      </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
@@ -1126,9 +1220,17 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>x3</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7321</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1520</v>
+      </c>
       <c r="E8" s="1" t="n"/>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
@@ -1139,7 +1241,9 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
+      <c r="D9" s="1" t="n">
+        <v>6205</v>
+      </c>
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
@@ -1159,10 +1263,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>75</v>
+      </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
+      <c r="E11" s="1" t="n">
+        <v>1500</v>
+      </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
@@ -1170,10 +1278,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>pk1</t>
+        </is>
+      </c>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="1" t="n">
+        <v>1412</v>
+      </c>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
@@ -1191,9 +1305,17 @@
       <c r="I13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2277</v>
+      </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
@@ -1203,9 +1325,17 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>7078</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1436</v>
+      </c>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
@@ -1216,7 +1346,9 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
+      <c r="D16" s="1" t="n">
+        <v>6236</v>
+      </c>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
@@ -1367,14 +1499,287 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№ станции</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Точка визирования</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>остчёты по рейкам</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Превышения</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Горизонт прибора</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Высота</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>задний</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>передний</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>промежуточный</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>hcp</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n">
+        <v>46111</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>45.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>pk0</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>5685</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n">
+        <v>4997</v>
+      </c>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>pk0</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2638</v>
+      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n">
+        <v>48438</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>x3</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7321</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n">
+        <v>46.917</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n">
+        <v>6205</v>
+      </c>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n">
+        <v>46.938</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>pk1</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n">
+        <v>1412</v>
+      </c>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n">
+        <v>47.026</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="lst" sheetId="1" state="visible" r:id="rId1"/>
@@ -420,11 +420,11 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="A1:I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>
@@ -1060,11 +1060,11 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>
@@ -1264,7 +1264,7 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>75</v>
+        <v>-75</v>
       </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -421,10 +421,10 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>
@@ -724,7 +724,7 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
@@ -747,10 +747,8 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>pk1</t>
-        </is>
+      <c r="B12" s="1" t="n">
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
@@ -823,7 +821,7 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>x2</t>
+          <t>x6</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
@@ -1064,7 +1062,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>

--- a/test.xlsx
+++ b/test.xlsx
@@ -421,10 +421,10 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>
@@ -729,13 +729,13 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n">
-        <v>46.938</v>
+        <v>43.438</v>
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
@@ -797,14 +797,14 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2277</v>
+        <v>2577</v>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n">
-        <v>49194</v>
+        <v>49494</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>46.917</v>
@@ -825,21 +825,21 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>7078</v>
+        <v>7378</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1436</v>
       </c>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n">
-        <v>841</v>
+        <v>1141</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>842</v>
+        <v>1142</v>
       </c>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n">
-        <v>47.758</v>
+        <v>48.059</v>
       </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n">
-        <v>842</v>
+        <v>1142</v>
       </c>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
@@ -1062,7 +1062,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>

--- a/test.xlsx
+++ b/test.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -729,13 +729,13 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n">
-        <v>43.438</v>
+        <v>46.938</v>
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -748,7 +748,7 @@
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
@@ -770,15 +770,6 @@
       <c r="P12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1" t="n"/>
-      <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
@@ -912,15 +903,6 @@
       <c r="P18" s="1" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
-      <c r="G19" s="1" t="n"/>
-      <c r="H19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -729,13 +729,13 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n">
-        <v>46.938</v>
+        <v>41.438</v>
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -424,7 +424,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>
@@ -729,13 +729,13 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n">
-        <v>41.438</v>
+        <v>47.438</v>
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
@@ -788,14 +788,14 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2577</v>
+        <v>1836</v>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n">
-        <v>49494</v>
+        <v>48753</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>46.917</v>
@@ -816,21 +816,20 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>7378</v>
+        <v>6636</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1436</v>
-      </c>
-      <c r="E15" s="1" t="n"/>
+        <v>2577</v>
+      </c>
       <c r="F15" s="1" t="n">
-        <v>1141</v>
+        <v>-741</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1142</v>
+        <v>-742</v>
       </c>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n">
-        <v>48.059</v>
+        <v>46.175</v>
       </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
@@ -844,14 +843,13 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>6236</v>
-      </c>
-      <c r="E16" s="1" t="n"/>
+        <v>7378</v>
+      </c>
       <c r="F16" s="1" t="n">
-        <v>1142</v>
+        <v>-742</v>
       </c>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
@@ -869,7 +867,7 @@
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
@@ -1044,7 +1042,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="9"/>
   </cols>

--- a/test.xlsx
+++ b/test.xlsx
@@ -418,10 +418,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -510,27 +510,15 @@
       <c r="P2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>x2</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n">
-        <v>46111</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>45.11</v>
-      </c>
+      <c r="A3" s="1" t="inlineStr"/>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="1" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="1" t="inlineStr"/>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
       <c r="L3" s="1" t="n"/>
@@ -540,29 +528,15 @@
       <c r="P3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>pk0</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>5685</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n">
-        <v>45.8</v>
-      </c>
+      <c r="A4" s="1" t="inlineStr"/>
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="1" t="inlineStr"/>
+      <c r="G4" s="1" t="inlineStr"/>
+      <c r="H4" s="1" t="inlineStr"/>
+      <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="n"/>
       <c r="L4" s="1" t="n"/>
@@ -572,21 +546,15 @@
       <c r="P4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n">
-        <v>4684</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>4997</v>
-      </c>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="inlineStr"/>
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
       <c r="L5" s="1" t="n"/>
@@ -596,17 +564,15 @@
       <c r="P5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n">
-        <v>4687</v>
-      </c>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-      <c r="I6" s="1" t="n"/>
+      <c r="A6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr"/>
+      <c r="G6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="1" t="n"/>
@@ -616,27 +582,15 @@
       <c r="P6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>pk0</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>2638</v>
-      </c>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n">
-        <v>48438</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>45.8</v>
-      </c>
+      <c r="A7" s="1" t="inlineStr"/>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="n"/>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
@@ -646,29 +600,15 @@
       <c r="P7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>x3</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>7321</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>1520</v>
-      </c>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n">
-        <v>1118</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>1117</v>
-      </c>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n">
-        <v>46.917</v>
-      </c>
+      <c r="A8" s="1" t="inlineStr"/>
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr"/>
+      <c r="D8" s="1" t="inlineStr"/>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="inlineStr"/>
+      <c r="G8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="inlineStr"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -678,21 +618,15 @@
       <c r="P8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
-        <v>4683</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>6205</v>
-      </c>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="G9" s="1" t="n"/>
-      <c r="H9" s="1" t="n"/>
-      <c r="I9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr"/>
+      <c r="G9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="inlineStr"/>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
@@ -702,17 +636,15 @@
       <c r="P9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n">
-        <v>4685</v>
-      </c>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr"/>
+      <c r="G10" s="1" t="inlineStr"/>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="inlineStr"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -722,21 +654,15 @@
       <c r="P10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n">
-        <v>47.438</v>
-      </c>
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr"/>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr"/>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
@@ -746,21 +672,15 @@
       <c r="P11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n">
-        <v>1412</v>
-      </c>
-      <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1" t="n"/>
-      <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n">
-        <v>47.026</v>
-      </c>
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
@@ -770,6 +690,15 @@
       <c r="P12" s="1" t="n"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
@@ -779,27 +708,15 @@
       <c r="P13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>1836</v>
-      </c>
-      <c r="D14" s="1" t="n"/>
-      <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="n"/>
-      <c r="G14" s="1" t="n"/>
-      <c r="H14" s="1" t="n">
-        <v>48753</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>46.917</v>
-      </c>
+      <c r="A14" s="1" t="inlineStr"/>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="inlineStr"/>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="inlineStr"/>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
@@ -809,28 +726,15 @@
       <c r="P14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>x6</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>6636</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>2577</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>-741</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>-742</v>
-      </c>
-      <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n">
-        <v>46.175</v>
-      </c>
+      <c r="A15" s="1" t="inlineStr"/>
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr"/>
+      <c r="G15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="inlineStr"/>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
@@ -840,20 +744,15 @@
       <c r="P15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>7378</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>-742</v>
-      </c>
-      <c r="G16" s="1" t="n"/>
-      <c r="H16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr"/>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" s="1" t="inlineStr"/>
+      <c r="G16" s="1" t="inlineStr"/>
+      <c r="H16" s="1" t="inlineStr"/>
+      <c r="I16" s="1" t="inlineStr"/>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
@@ -863,17 +762,15 @@
       <c r="P16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n">
-        <v>4801</v>
-      </c>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="n"/>
-      <c r="H17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr"/>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr"/>
+      <c r="D17" s="1" t="inlineStr"/>
+      <c r="E17" s="1" t="inlineStr"/>
+      <c r="F17" s="1" t="inlineStr"/>
+      <c r="G17" s="1" t="inlineStr"/>
+      <c r="H17" s="1" t="inlineStr"/>
+      <c r="I17" s="1" t="inlineStr"/>
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
@@ -883,15 +780,15 @@
       <c r="P17" s="1" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
-      <c r="G18" s="1" t="n"/>
-      <c r="H18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
+      <c r="A18" s="1" t="inlineStr"/>
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr"/>
+      <c r="D18" s="1" t="inlineStr"/>
+      <c r="E18" s="1" t="inlineStr"/>
+      <c r="F18" s="1" t="inlineStr"/>
+      <c r="G18" s="1" t="inlineStr"/>
+      <c r="H18" s="1" t="inlineStr"/>
+      <c r="I18" s="1" t="inlineStr"/>
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
@@ -901,6 +798,15 @@
       <c r="P18" s="1" t="n"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
@@ -910,119 +816,917 @@
       <c r="P19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1" t="n"/>
-      <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr"/>
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr"/>
+      <c r="D20" s="1" t="inlineStr"/>
+      <c r="E20" s="1" t="inlineStr"/>
+      <c r="F20" s="1" t="inlineStr"/>
+      <c r="G20" s="1" t="inlineStr"/>
+      <c r="H20" s="1" t="inlineStr"/>
+      <c r="I20" s="1" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
-      <c r="H21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr"/>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="inlineStr"/>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr"/>
+      <c r="G21" s="1" t="inlineStr"/>
+      <c r="H21" s="1" t="inlineStr"/>
+      <c r="I21" s="1" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1" t="n"/>
-      <c r="H22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr"/>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr"/>
+      <c r="D22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr"/>
+      <c r="G22" s="1" t="inlineStr"/>
+      <c r="H22" s="1" t="inlineStr"/>
+      <c r="I22" s="1" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1" t="n"/>
-      <c r="H23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
+      <c r="A23" s="1" t="inlineStr"/>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr"/>
+      <c r="D23" s="1" t="inlineStr"/>
+      <c r="E23" s="1" t="inlineStr"/>
+      <c r="F23" s="1" t="inlineStr"/>
+      <c r="G23" s="1" t="inlineStr"/>
+      <c r="H23" s="1" t="inlineStr"/>
+      <c r="I23" s="1" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n"/>
-      <c r="H24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr"/>
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="1" t="inlineStr"/>
+      <c r="E24" s="1" t="inlineStr"/>
+      <c r="F24" s="1" t="inlineStr"/>
+      <c r="G24" s="1" t="inlineStr"/>
+      <c r="H24" s="1" t="inlineStr"/>
+      <c r="I24" s="1" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
-      <c r="G25" s="1" t="n"/>
-      <c r="H25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
+      <c r="A25" s="1" t="inlineStr"/>
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr"/>
+      <c r="D25" s="1" t="inlineStr"/>
+      <c r="E25" s="1" t="inlineStr"/>
+      <c r="F25" s="1" t="inlineStr"/>
+      <c r="G25" s="1" t="inlineStr"/>
+      <c r="H25" s="1" t="inlineStr"/>
+      <c r="I25" s="1" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="n"/>
-      <c r="F26" s="1" t="n"/>
-      <c r="G26" s="1" t="n"/>
-      <c r="H26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr"/>
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr"/>
+      <c r="D26" s="1" t="inlineStr"/>
+      <c r="E26" s="1" t="inlineStr"/>
+      <c r="F26" s="1" t="inlineStr"/>
+      <c r="G26" s="1" t="inlineStr"/>
+      <c r="H26" s="1" t="inlineStr"/>
+      <c r="I26" s="1" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="n"/>
-      <c r="G27" s="1" t="n"/>
-      <c r="H27" s="1" t="n"/>
-      <c r="I27" s="1" t="n"/>
+      <c r="A27" s="1" t="inlineStr"/>
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="inlineStr"/>
+      <c r="E27" s="1" t="inlineStr"/>
+      <c r="F27" s="1" t="inlineStr"/>
+      <c r="G27" s="1" t="inlineStr"/>
+      <c r="H27" s="1" t="inlineStr"/>
+      <c r="I27" s="1" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
-      <c r="G28" s="1" t="n"/>
-      <c r="H28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr"/>
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr"/>
+      <c r="D28" s="1" t="inlineStr"/>
+      <c r="E28" s="1" t="inlineStr"/>
+      <c r="F28" s="1" t="inlineStr"/>
+      <c r="G28" s="1" t="inlineStr"/>
+      <c r="H28" s="1" t="inlineStr"/>
+      <c r="I28" s="1" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="B29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" s="1" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="E30" s="1" t="n"/>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" s="1" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="E31" s="1" t="n"/>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" s="1" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="E32" s="1" t="n"/>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" s="1" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="E33" s="1" t="n"/>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" s="1" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1039,7 +1743,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1129,7 +1833,9 @@
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
+      <c r="H3" s="1" t="n">
+        <v>46111</v>
+      </c>
       <c r="I3" s="1" t="n">
         <v>45.11</v>
       </c>
@@ -1148,20 +1854,30 @@
         <v>310</v>
       </c>
       <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
+      <c r="F4" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>690</v>
+      </c>
       <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
+      <c r="I4" s="1" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>4684</v>
+      </c>
       <c r="D5" s="1" t="n">
         <v>4997</v>
       </c>
       <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
+      <c r="F5" s="1" t="n">
+        <v>688</v>
+      </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
@@ -1170,7 +1886,9 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
+      <c r="D6" s="1" t="n">
+        <v>4687</v>
+      </c>
       <c r="E6" s="1" t="n"/>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="n"/>
@@ -1193,8 +1911,12 @@
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
       <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
+      <c r="H7" s="1" t="n">
+        <v>48438</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -1210,20 +1932,30 @@
         <v>1520</v>
       </c>
       <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
-      <c r="G8" s="1" t="n"/>
+      <c r="F8" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1117</v>
+      </c>
       <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
+      <c r="I8" s="1" t="n">
+        <v>46.917</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>4683</v>
+      </c>
       <c r="D9" s="1" t="n">
         <v>6205</v>
       </c>
       <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
+      <c r="F9" s="1" t="n">
+        <v>1116</v>
+      </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
@@ -1232,7 +1964,9 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
+      <c r="D10" s="1" t="n">
+        <v>4685</v>
+      </c>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
@@ -1242,24 +1976,24 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>-75</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
+      <c r="I11" s="1" t="n">
+        <v>47.438</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>pk1</t>
-        </is>
+      <c r="B12" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
@@ -1269,18 +2003,9 @@
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1" t="n"/>
-      <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
+      <c r="I12" s="1" t="n">
+        <v>47.026</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1292,43 +2017,55 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>2277</v>
+        <v>1836</v>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
-      <c r="H14" s="1" t="n"/>
-      <c r="I14" s="1" t="n"/>
+      <c r="H14" s="1" t="n">
+        <v>48753</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>46.917</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>x2</t>
+          <t>x6</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>7078</v>
+        <v>6636</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1436</v>
-      </c>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1" t="n"/>
+        <v>2577</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-741</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>-742</v>
+      </c>
       <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
+      <c r="I15" s="1" t="n">
+        <v>46.175</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+      <c r="C16" s="1" t="n">
+        <v>4800</v>
+      </c>
       <c r="D16" s="1" t="n">
-        <v>6236</v>
-      </c>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+        <v>7378</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-742</v>
+      </c>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -1337,7 +2074,9 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
+      <c r="D17" s="1" t="n">
+        <v>4801</v>
+      </c>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
